--- a/Data_files/honors.xlsx
+++ b/Data_files/honors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -65,15 +65,9 @@
     <t>Postdoctoral Fellowship</t>
   </si>
   <si>
-    <t>Fundação Calouste Gulbenkian</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deutsche Forschungsgemeinschaft </t>
   </si>
   <si>
-    <t>Fundação para a Ciência e Tecnologia</t>
-  </si>
-  <si>
     <t>10th Frontiers of Engineering Symposium</t>
   </si>
   <si>
@@ -155,13 +149,19 @@
     <t>-</t>
   </si>
   <si>
-    <t>Junta Nacional de Investigação Cientifica e Tecnologica</t>
-  </si>
-  <si>
     <t>German-American Frontiers of Science Symposium</t>
   </si>
   <si>
     <t>NA Keck Futures Initiative -- Complex Systems</t>
+  </si>
+  <si>
+    <t>Funda\c{c}\~ao Calouste Gulbenkian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junta Nacional de Investiga\c{c}\~ao Cientifica e Tecnologica </t>
+  </si>
+  <si>
+    <t>Funda\c{c}\~ao para a Ci\^encia e Tecnologia</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,10 +543,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -560,10 +560,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -577,10 +577,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -594,10 +594,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -611,10 +611,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -625,10 +625,10 @@
         <v>2002</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -659,13 +659,13 @@
         <v>2004</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -679,10 +679,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -693,10 +693,10 @@
         <v>2004</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -713,10 +713,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -728,13 +728,13 @@
         <v>2005</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -746,13 +746,13 @@
         <v>2005</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -764,13 +764,13 @@
         <v>2006</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -785,10 +785,10 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -800,13 +800,13 @@
         <v>2009</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -821,10 +821,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -839,10 +839,10 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -857,10 +857,10 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
